--- a/docs/PT2ov/PT2ov1_14.08.2024_output.xlsx
+++ b/docs/PT2ov/PT2ov1_14.08.2024_output.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K67"/>
+  <dimension ref="A1:N67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -437,52 +437,67 @@
     <row r="1">
       <c r="B1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>name</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>open</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>close</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>open_image</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>close_img</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>pos</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>traider</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>open_price</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>close_price</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>quity</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>percent</t>
         </is>
       </c>
     </row>
@@ -490,1170 +505,1393 @@
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
+      </c>
+      <c r="D2" t="inlineStr">
         <is>
           <t>moex</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
+      <c r="E2" t="inlineStr">
         <is>
           <t>2024-06-14 16:05:29.360793</t>
         </is>
       </c>
-      <c r="D2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>2024-06-14 16:08:51.910451</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>./test_images/none.png</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="J2" t="inlineStr">
         <is>
           <t>VisualTraider</t>
         </is>
       </c>
-      <c r="I2" t="inlineStr"/>
-      <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
+      <c r="N2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" t="n">
+        <v>1</v>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C3" t="inlineStr">
+      <c r="E3" t="inlineStr">
         <is>
           <t>1731078601.5450094</t>
         </is>
       </c>
-      <c r="D3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1731078601.5952294</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="G3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731078601.5450094.png</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="H3" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731078601.5952294.png</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
+      <c r="I3" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="J3" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K3" t="n">
         <v>283.34</v>
       </c>
-      <c r="J3" t="n">
+      <c r="L3" t="n">
         <v>283.31</v>
       </c>
-      <c r="K3" t="n">
+      <c r="M3" t="n">
         <v>0.02999999999997272</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" t="n">
+        <v>2</v>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="E4" t="inlineStr">
         <is>
           <t>1731078604.8952627</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>1731078605.5462503</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="G4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731078604.8952627.png</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="H4" t="inlineStr">
         <is>
           <t>./test_images/SBERP1731078605.5462503.png</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="I4" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="J4" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K4" t="n">
         <v>282.96</v>
       </c>
-      <c r="J4" t="n">
+      <c r="L4" t="n">
         <v>282.21</v>
       </c>
-      <c r="K4" t="n">
+      <c r="M4" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N4" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
-      <c r="B5" t="inlineStr">
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="inlineStr">
         <is>
           <t>SBERP</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="E5" t="inlineStr">
         <is>
           <t>1731078605.7352245</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr"/>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>./test_images/SBERP1731078605.7352245.png</t>
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
       <c r="G5" t="inlineStr">
         <is>
+          <t>./test_images/SBERP1731078605.7352245.png</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr"/>
+      <c r="I5" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="J5" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K5" t="n">
         <v>282.53</v>
       </c>
-      <c r="J5" t="n">
-        <v>282.53</v>
-      </c>
-      <c r="K5" t="n">
-        <v>0</v>
+      <c r="L5" t="n">
+        <v>282.27</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.2599999999999909</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0.09</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
-      <c r="B6" t="inlineStr">
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="n">
+        <v>4</v>
+      </c>
+      <c r="D6" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>1731078609.3358707</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="F6" t="inlineStr">
         <is>
           <t>1731078609.3893328</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078609.3358707.png</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="H6" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078609.3893328.png</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
+      <c r="I6" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="J6" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K6" t="n">
         <v>283.34</v>
       </c>
-      <c r="J6" t="n">
+      <c r="L6" t="n">
         <v>283.31</v>
       </c>
-      <c r="K6" t="n">
+      <c r="M6" t="n">
         <v>0.02999999999997272</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
-      <c r="B7" t="inlineStr">
+      <c r="B7" t="n">
+        <v>5</v>
+      </c>
+      <c r="C7" t="n">
+        <v>5</v>
+      </c>
+      <c r="D7" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>1731078612.5554054</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
+      <c r="F7" t="inlineStr">
         <is>
           <t>1731078613.1553159</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
+      <c r="G7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078612.5554054.png</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078613.1553159.png</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
         <v>282.96</v>
       </c>
-      <c r="J7" t="n">
+      <c r="L7" t="n">
         <v>282.21</v>
       </c>
-      <c r="K7" t="n">
+      <c r="M7" t="n">
         <v>0.75</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
-      <c r="B8" t="inlineStr">
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>6</v>
+      </c>
+      <c r="D8" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C8" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>1731078613.3252335</t>
         </is>
       </c>
-      <c r="D8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>1731078615.9000208</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="G8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078613.3252335.png</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078615.9000208.png</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
         <v>282.53</v>
       </c>
-      <c r="J8" t="n">
+      <c r="L8" t="n">
         <v>283.81</v>
       </c>
-      <c r="K8" t="n">
+      <c r="M8" t="n">
         <v>-1.28000000000003</v>
+      </c>
+      <c r="N8" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
-      <c r="B9" t="inlineStr">
+      <c r="B9" t="n">
+        <v>7</v>
+      </c>
+      <c r="C9" t="n">
+        <v>7</v>
+      </c>
+      <c r="D9" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C9" t="inlineStr">
+      <c r="E9" t="inlineStr">
         <is>
           <t>1731078620.824923</t>
         </is>
       </c>
-      <c r="D9" t="inlineStr">
+      <c r="F9" t="inlineStr">
         <is>
           <t>1731078621.3450599</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
+      <c r="G9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078620.824923.png</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="H9" t="inlineStr">
         <is>
           <t>./test_images/SBER1731078621.3450599.png</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
+      <c r="I9" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
         <v>283.75</v>
       </c>
-      <c r="J9" t="n">
+      <c r="L9" t="n">
         <v>283.34</v>
       </c>
-      <c r="K9" t="n">
+      <c r="M9" t="n">
         <v>0.410000000000025</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="B10" t="inlineStr">
+      <c r="B10" t="n">
+        <v>8</v>
+      </c>
+      <c r="C10" t="n">
+        <v>8</v>
+      </c>
+      <c r="D10" t="inlineStr">
         <is>
           <t>SBER</t>
         </is>
       </c>
-      <c r="C10" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>1731078622.1252196</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr"/>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>./test_images/SBER1731078622.1252196.png</t>
         </is>
       </c>
       <c r="F10" t="inlineStr"/>
       <c r="G10" t="inlineStr">
         <is>
+          <t>./test_images/SBER1731078622.1252196.png</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr"/>
+      <c r="I10" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
         <v>283.26</v>
       </c>
-      <c r="J10" t="n">
-        <v>283.26</v>
-      </c>
-      <c r="K10" t="n">
-        <v>0</v>
+      <c r="L10" t="n">
+        <v>282.91</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.3499999999999659</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
-      <c r="B11" t="inlineStr">
+      <c r="B11" t="n">
+        <v>9</v>
+      </c>
+      <c r="C11" t="n">
+        <v>9</v>
+      </c>
+      <c r="D11" t="inlineStr">
         <is>
           <t>GAZP</t>
         </is>
       </c>
-      <c r="C11" t="inlineStr">
+      <c r="E11" t="inlineStr">
         <is>
           <t>1731078630.47011</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr"/>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>./test_images/GAZP1731078630.47011.png</t>
         </is>
       </c>
       <c r="F11" t="inlineStr"/>
       <c r="G11" t="inlineStr">
         <is>
+          <t>./test_images/GAZP1731078630.47011.png</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr"/>
+      <c r="I11" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="J11" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K11" t="n">
         <v>130.86</v>
       </c>
-      <c r="J11" t="n">
-        <v>130.86</v>
-      </c>
-      <c r="K11" t="n">
-        <v>0</v>
+      <c r="L11" t="n">
+        <v>130.8</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
-      <c r="B12" t="inlineStr">
+      <c r="B12" t="n">
+        <v>10</v>
+      </c>
+      <c r="C12" t="n">
+        <v>10</v>
+      </c>
+      <c r="D12" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C12" t="inlineStr">
+      <c r="E12" t="inlineStr">
         <is>
           <t>1731078631.1776237</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
+      <c r="F12" t="inlineStr">
         <is>
           <t>1731078632.7850134</t>
         </is>
       </c>
-      <c r="E12" t="inlineStr">
+      <c r="G12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731078631.1776237.png</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731078632.7850134.png</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="I12" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K12" t="n">
         <v>6469</v>
       </c>
-      <c r="J12" t="n">
+      <c r="L12" t="n">
         <v>6467.5</v>
       </c>
-      <c r="K12" t="n">
+      <c r="M12" t="n">
         <v>-1.5</v>
+      </c>
+      <c r="N12" t="n">
+        <v>-0.02</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
-      <c r="B13" t="inlineStr">
+      <c r="B13" t="n">
+        <v>11</v>
+      </c>
+      <c r="C13" t="n">
+        <v>11</v>
+      </c>
+      <c r="D13" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C13" t="inlineStr">
+      <c r="E13" t="inlineStr">
         <is>
           <t>1731078633.9452467</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1731078635.4550827</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="G13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731078633.9452467.png</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731078635.4550827.png</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="J13" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K13" t="n">
         <v>6513</v>
       </c>
-      <c r="J13" t="n">
+      <c r="L13" t="n">
         <v>6512.5</v>
       </c>
-      <c r="K13" t="n">
+      <c r="M13" t="n">
         <v>-0.5</v>
+      </c>
+      <c r="N13" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
-      <c r="B14" t="inlineStr">
+      <c r="B14" t="n">
+        <v>12</v>
+      </c>
+      <c r="C14" t="n">
+        <v>12</v>
+      </c>
+      <c r="D14" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C14" t="inlineStr">
+      <c r="E14" t="inlineStr">
         <is>
           <t>1731078635.8154848</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
+      <c r="F14" t="inlineStr">
         <is>
           <t>1731078638.9748423</t>
         </is>
       </c>
-      <c r="E14" t="inlineStr">
+      <c r="G14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731078635.8154848.png</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>./test_images/LKOH1731078638.9748423.png</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K14" t="n">
         <v>6516.5</v>
       </c>
-      <c r="J14" t="n">
+      <c r="L14" t="n">
         <v>6466</v>
       </c>
-      <c r="K14" t="n">
+      <c r="M14" t="n">
         <v>-50.5</v>
+      </c>
+      <c r="N14" t="n">
+        <v>-0.77</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
-      <c r="B15" t="inlineStr">
+      <c r="B15" t="n">
+        <v>13</v>
+      </c>
+      <c r="C15" t="n">
+        <v>13</v>
+      </c>
+      <c r="D15" t="inlineStr">
         <is>
           <t>LKOH</t>
         </is>
       </c>
-      <c r="C15" t="inlineStr">
+      <c r="E15" t="inlineStr">
         <is>
           <t>1731078638.9952517</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr"/>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>./test_images/LKOH1731078638.9952517.png</t>
         </is>
       </c>
       <c r="F15" t="inlineStr"/>
       <c r="G15" t="inlineStr">
         <is>
+          <t>./test_images/LKOH1731078638.9952517.png</t>
+        </is>
+      </c>
+      <c r="H15" t="inlineStr"/>
+      <c r="I15" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="J15" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K15" t="n">
         <v>6466</v>
       </c>
-      <c r="J15" t="n">
-        <v>6466</v>
-      </c>
-      <c r="K15" t="n">
-        <v>0</v>
+      <c r="L15" t="n">
+        <v>6461</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
-      <c r="B16" t="inlineStr">
+      <c r="B16" t="n">
+        <v>14</v>
+      </c>
+      <c r="C16" t="n">
+        <v>14</v>
+      </c>
+      <c r="D16" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr">
+      <c r="E16" t="inlineStr">
         <is>
           <t>1731078641.344862</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
+      <c r="F16" t="inlineStr">
         <is>
           <t>1731078642.3958182</t>
         </is>
       </c>
-      <c r="E16" t="inlineStr">
+      <c r="G16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731078641.344862.png</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="H16" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731078642.3958182.png</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="I16" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K16" t="n">
         <v>502.6</v>
       </c>
-      <c r="J16" t="n">
+      <c r="L16" t="n">
         <v>504.45</v>
       </c>
-      <c r="K16" t="n">
+      <c r="M16" t="n">
         <v>-1.849999999999966</v>
+      </c>
+      <c r="N16" t="n">
+        <v>-0.37</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B17" t="inlineStr">
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="n">
+        <v>15</v>
+      </c>
+      <c r="D17" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C17" t="inlineStr">
+      <c r="E17" t="inlineStr">
         <is>
           <t>1731078644.5550745</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="F17" t="inlineStr">
         <is>
           <t>1731078644.8550906</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="G17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731078644.5550745.png</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="H17" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731078644.8550906.png</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="I17" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K17" t="n">
         <v>504.2</v>
       </c>
-      <c r="J17" t="n">
+      <c r="L17" t="n">
         <v>504.75</v>
       </c>
-      <c r="K17" t="n">
+      <c r="M17" t="n">
         <v>0.5500000000000114</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
-      <c r="B18" t="inlineStr">
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="n">
+        <v>16</v>
+      </c>
+      <c r="D18" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C18" t="inlineStr">
+      <c r="E18" t="inlineStr">
         <is>
           <t>1731078645.5350497</t>
         </is>
       </c>
-      <c r="D18" t="inlineStr">
+      <c r="F18" t="inlineStr">
         <is>
           <t>1731078647.6749616</t>
         </is>
       </c>
-      <c r="E18" t="inlineStr">
+      <c r="G18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731078645.5350497.png</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>./test_images/ROSN1731078647.6749616.png</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I18" t="n">
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K18" t="n">
         <v>503.05</v>
       </c>
-      <c r="J18" t="n">
+      <c r="L18" t="n">
         <v>501.3</v>
       </c>
-      <c r="K18" t="n">
+      <c r="M18" t="n">
         <v>-1.75</v>
+      </c>
+      <c r="N18" t="n">
+        <v>-0.35</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
-      <c r="B19" t="inlineStr">
+      <c r="B19" t="n">
+        <v>17</v>
+      </c>
+      <c r="C19" t="n">
+        <v>17</v>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>ROSN</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>1731078647.6951132</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr"/>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>./test_images/ROSN1731078647.6951132.png</t>
         </is>
       </c>
       <c r="F19" t="inlineStr"/>
       <c r="G19" t="inlineStr">
         <is>
+          <t>./test_images/ROSN1731078647.6951132.png</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr"/>
+      <c r="I19" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I19" t="n">
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K19" t="n">
         <v>501.3</v>
       </c>
-      <c r="J19" t="n">
-        <v>501.3</v>
-      </c>
-      <c r="K19" t="n">
-        <v>0</v>
+      <c r="L19" t="n">
+        <v>501.5</v>
+      </c>
+      <c r="M19" t="n">
+        <v>-0.1999999999999886</v>
+      </c>
+      <c r="N19" t="n">
+        <v>-0.04</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
-      <c r="B20" t="inlineStr">
+      <c r="B20" t="n">
+        <v>18</v>
+      </c>
+      <c r="C20" t="n">
+        <v>18</v>
+      </c>
+      <c r="D20" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C20" t="inlineStr">
+      <c r="E20" t="inlineStr">
         <is>
           <t>1731078648.1588845</t>
         </is>
       </c>
-      <c r="D20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1731078649.1353223</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078648.1588845.png</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="H20" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078649.1353223.png</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="I20" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I20" t="n">
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K20" t="n">
         <v>226.17</v>
       </c>
-      <c r="J20" t="n">
+      <c r="L20" t="n">
         <v>226.02</v>
       </c>
-      <c r="K20" t="n">
+      <c r="M20" t="n">
         <v>0.1499999999999773</v>
+      </c>
+      <c r="N20" t="n">
+        <v>0.06999999999999999</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
-      <c r="B21" t="inlineStr">
+      <c r="B21" t="n">
+        <v>19</v>
+      </c>
+      <c r="C21" t="n">
+        <v>19</v>
+      </c>
+      <c r="D21" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C21" t="inlineStr">
+      <c r="E21" t="inlineStr">
         <is>
           <t>1731078650.2349887</t>
         </is>
       </c>
-      <c r="D21" t="inlineStr">
+      <c r="F21" t="inlineStr">
         <is>
           <t>1731078650.2851856</t>
         </is>
       </c>
-      <c r="E21" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078650.2349887.png</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="H21" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078650.2851856.png</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="I21" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I21" t="n">
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K21" t="n">
         <v>225.8</v>
       </c>
-      <c r="J21" t="n">
+      <c r="L21" t="n">
         <v>225.78</v>
       </c>
-      <c r="K21" t="n">
+      <c r="M21" t="n">
         <v>0.02000000000001023</v>
+      </c>
+      <c r="N21" t="n">
+        <v>0.01</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
-      <c r="B22" t="inlineStr">
+      <c r="B22" t="n">
+        <v>20</v>
+      </c>
+      <c r="C22" t="n">
+        <v>20</v>
+      </c>
+      <c r="D22" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C22" t="inlineStr">
+      <c r="E22" t="inlineStr">
         <is>
           <t>1731078650.3402438</t>
         </is>
       </c>
-      <c r="D22" t="inlineStr">
+      <c r="F22" t="inlineStr">
         <is>
           <t>1731078650.7952573</t>
         </is>
       </c>
-      <c r="E22" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078650.3402438.png</t>
         </is>
       </c>
-      <c r="F22" t="inlineStr">
+      <c r="H22" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078650.7952573.png</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="I22" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H22" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I22" t="n">
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K22" t="n">
         <v>225.77</v>
       </c>
-      <c r="J22" t="n">
+      <c r="L22" t="n">
         <v>225.66</v>
       </c>
-      <c r="K22" t="n">
+      <c r="M22" t="n">
         <v>0.1100000000000136</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0.05</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
-      <c r="B23" t="inlineStr">
+      <c r="B23" t="n">
+        <v>21</v>
+      </c>
+      <c r="C23" t="n">
+        <v>21</v>
+      </c>
+      <c r="D23" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C23" t="inlineStr">
+      <c r="E23" t="inlineStr">
         <is>
           <t>1731078651.184928</t>
         </is>
       </c>
-      <c r="D23" t="inlineStr">
+      <c r="F23" t="inlineStr">
         <is>
           <t>1731078651.2400777</t>
         </is>
       </c>
-      <c r="E23" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078651.184928.png</t>
         </is>
       </c>
-      <c r="F23" t="inlineStr">
+      <c r="H23" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078651.2400777.png</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="I23" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H23" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I23" t="n">
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K23" t="n">
         <v>225.62</v>
       </c>
-      <c r="J23" t="n">
+      <c r="L23" t="n">
         <v>225.61</v>
       </c>
-      <c r="K23" t="n">
+      <c r="M23" t="n">
         <v>0.009999999999990905</v>
+      </c>
+      <c r="N23" t="n">
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
-      <c r="B24" t="inlineStr">
+      <c r="B24" t="n">
+        <v>22</v>
+      </c>
+      <c r="C24" t="n">
+        <v>22</v>
+      </c>
+      <c r="D24" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="E24" t="inlineStr">
         <is>
           <t>1731078651.4551933</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
+      <c r="F24" t="inlineStr">
         <is>
           <t>1731078652.0801768</t>
         </is>
       </c>
-      <c r="E24" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078651.4551933.png</t>
         </is>
       </c>
-      <c r="F24" t="inlineStr">
+      <c r="H24" t="inlineStr">
         <is>
           <t>./test_images/MOEX1731078652.0801768.png</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="I24" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H24" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I24" t="n">
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K24" t="n">
         <v>225.6</v>
       </c>
-      <c r="J24" t="n">
+      <c r="L24" t="n">
         <v>225.54</v>
       </c>
-      <c r="K24" t="n">
+      <c r="M24" t="n">
         <v>0.06000000000000227</v>
+      </c>
+      <c r="N24" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
-      <c r="B25" t="inlineStr">
+      <c r="B25" t="n">
+        <v>23</v>
+      </c>
+      <c r="C25" t="n">
+        <v>23</v>
+      </c>
+      <c r="D25" t="inlineStr">
         <is>
           <t>MOEX</t>
         </is>
       </c>
-      <c r="C25" t="inlineStr">
+      <c r="E25" t="inlineStr">
         <is>
           <t>1731078655.4350214</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr"/>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>./test_images/MOEX1731078655.4350214.png</t>
         </is>
       </c>
       <c r="F25" t="inlineStr"/>
       <c r="G25" t="inlineStr">
         <is>
+          <t>./test_images/MOEX1731078655.4350214.png</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr"/>
+      <c r="I25" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H25" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I25" t="n">
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K25" t="n">
         <v>224.54</v>
       </c>
-      <c r="J25" t="n">
-        <v>224.54</v>
-      </c>
-      <c r="K25" t="n">
-        <v>0</v>
+      <c r="L25" t="n">
+        <v>224.3</v>
+      </c>
+      <c r="M25" t="n">
+        <v>0.2399999999999807</v>
+      </c>
+      <c r="N25" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
-      <c r="B26" t="inlineStr">
+      <c r="B26" t="n">
+        <v>24</v>
+      </c>
+      <c r="C26" t="n">
+        <v>24</v>
+      </c>
+      <c r="D26" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C26" t="inlineStr">
+      <c r="E26" t="inlineStr">
         <is>
           <t>1731078660.9301965</t>
         </is>
       </c>
-      <c r="D26" t="inlineStr">
+      <c r="F26" t="inlineStr">
         <is>
           <t>1731078661.100078</t>
         </is>
       </c>
-      <c r="E26" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731078660.9301965.png</t>
         </is>
       </c>
-      <c r="F26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731078661.100078.png</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I26" t="n">
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K26" t="n">
         <v>1066.2</v>
       </c>
-      <c r="J26" t="n">
+      <c r="L26" t="n">
         <v>1066.2</v>
       </c>
-      <c r="K26" t="n">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1661,628 +1899,745 @@
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
-      <c r="B27" t="inlineStr">
+      <c r="B27" t="n">
+        <v>25</v>
+      </c>
+      <c r="C27" t="n">
+        <v>25</v>
+      </c>
+      <c r="D27" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C27" t="inlineStr">
+      <c r="E27" t="inlineStr">
         <is>
           <t>1731078661.1951516</t>
         </is>
       </c>
-      <c r="D27" t="inlineStr">
+      <c r="F27" t="inlineStr">
         <is>
           <t>1731078663.0551739</t>
         </is>
       </c>
-      <c r="E27" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731078661.1951516.png</t>
         </is>
       </c>
-      <c r="F27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731078663.0551739.png</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I27" t="n">
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K27" t="n">
         <v>1064</v>
       </c>
-      <c r="J27" t="n">
+      <c r="L27" t="n">
         <v>1060.8</v>
       </c>
-      <c r="K27" t="n">
+      <c r="M27" t="n">
         <v>-3.200000000000045</v>
+      </c>
+      <c r="N27" t="n">
+        <v>-0.3</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
-      <c r="B28" t="inlineStr">
+      <c r="B28" t="n">
+        <v>26</v>
+      </c>
+      <c r="C28" t="n">
+        <v>26</v>
+      </c>
+      <c r="D28" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C28" t="inlineStr">
+      <c r="E28" t="inlineStr">
         <is>
           <t>1731078663.8250945</t>
         </is>
       </c>
-      <c r="D28" t="inlineStr">
+      <c r="F28" t="inlineStr">
         <is>
           <t>1731078663.8849962</t>
         </is>
       </c>
-      <c r="E28" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731078663.8250945.png</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="H28" t="inlineStr">
         <is>
           <t>./test_images/NVTK1731078663.8849962.png</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="I28" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H28" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I28" t="n">
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K28" t="n">
         <v>1059.2</v>
       </c>
-      <c r="J28" t="n">
+      <c r="L28" t="n">
         <v>1057.6</v>
       </c>
-      <c r="K28" t="n">
+      <c r="M28" t="n">
         <v>1.600000000000136</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
-      <c r="B29" t="inlineStr">
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="n">
+        <v>27</v>
+      </c>
+      <c r="D29" t="inlineStr">
         <is>
           <t>NVTK</t>
         </is>
       </c>
-      <c r="C29" t="inlineStr">
+      <c r="E29" t="inlineStr">
         <is>
           <t>1731078663.9450924</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>./test_images/NVTK1731078663.9450924.png</t>
         </is>
       </c>
       <c r="F29" t="inlineStr"/>
       <c r="G29" t="inlineStr">
         <is>
+          <t>./test_images/NVTK1731078663.9450924.png</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr"/>
+      <c r="I29" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I29" t="n">
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K29" t="n">
         <v>1058.2</v>
       </c>
-      <c r="J29" t="n">
-        <v>1058.2</v>
-      </c>
-      <c r="K29" t="n">
-        <v>0</v>
+      <c r="L29" t="n">
+        <v>1060</v>
+      </c>
+      <c r="M29" t="n">
+        <v>-1.799999999999955</v>
+      </c>
+      <c r="N29" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
-      <c r="B30" t="inlineStr">
+      <c r="B30" t="n">
+        <v>28</v>
+      </c>
+      <c r="C30" t="n">
+        <v>28</v>
+      </c>
+      <c r="D30" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C30" t="inlineStr">
+      <c r="E30" t="inlineStr">
         <is>
           <t>1731078665.1150975</t>
         </is>
       </c>
-      <c r="D30" t="inlineStr">
+      <c r="F30" t="inlineStr">
         <is>
           <t>1731078665.6427038</t>
         </is>
       </c>
-      <c r="E30" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078665.1150975.png</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="H30" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078665.6427038.png</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="I30" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H30" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I30" t="n">
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K30" t="n">
         <v>12.207</v>
       </c>
-      <c r="J30" t="n">
+      <c r="L30" t="n">
         <v>12.192</v>
       </c>
-      <c r="K30" t="n">
+      <c r="M30" t="n">
         <v>0.01500000000000057</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0.12</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
-      <c r="B31" t="inlineStr">
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="n">
+        <v>29</v>
+      </c>
+      <c r="D31" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C31" t="inlineStr">
+      <c r="E31" t="inlineStr">
         <is>
           <t>1731078666.9451466</t>
         </is>
       </c>
-      <c r="D31" t="inlineStr">
+      <c r="F31" t="inlineStr">
         <is>
           <t>1731078668.175226</t>
         </is>
       </c>
-      <c r="E31" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078666.9451466.png</t>
         </is>
       </c>
-      <c r="F31" t="inlineStr">
+      <c r="H31" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078668.175226.png</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="I31" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H31" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I31" t="n">
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K31" t="n">
         <v>12.186</v>
       </c>
-      <c r="J31" t="n">
+      <c r="L31" t="n">
         <v>12.208</v>
       </c>
-      <c r="K31" t="n">
+      <c r="M31" t="n">
         <v>0.02200000000000024</v>
+      </c>
+      <c r="N31" t="n">
+        <v>0.18</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
-      <c r="B32" t="inlineStr">
+      <c r="B32" t="n">
+        <v>30</v>
+      </c>
+      <c r="C32" t="n">
+        <v>30</v>
+      </c>
+      <c r="D32" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C32" t="inlineStr">
+      <c r="E32" t="inlineStr">
         <is>
           <t>1731078669.360227</t>
         </is>
       </c>
-      <c r="D32" t="inlineStr">
+      <c r="F32" t="inlineStr">
         <is>
           <t>1731078671.1348763</t>
         </is>
       </c>
-      <c r="E32" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078669.360227.png</t>
         </is>
       </c>
-      <c r="F32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078671.1348763.png</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I32" t="n">
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K32" t="n">
         <v>12.195</v>
       </c>
-      <c r="J32" t="n">
+      <c r="L32" t="n">
         <v>12.153</v>
       </c>
-      <c r="K32" t="n">
+      <c r="M32" t="n">
         <v>-0.04199999999999982</v>
+      </c>
+      <c r="N32" t="n">
+        <v>-0.34</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
-      <c r="B33" t="inlineStr">
+      <c r="B33" t="n">
+        <v>31</v>
+      </c>
+      <c r="C33" t="n">
+        <v>31</v>
+      </c>
+      <c r="D33" t="inlineStr">
         <is>
           <t>CNY</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
+      <c r="E33" t="inlineStr">
         <is>
           <t>1731078671.147333</t>
         </is>
       </c>
-      <c r="D33" t="inlineStr">
+      <c r="F33" t="inlineStr">
         <is>
           <t>1731078671.6477044</t>
         </is>
       </c>
-      <c r="E33" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078671.147333.png</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="H33" t="inlineStr">
         <is>
           <t>./test_images/CNY1731078671.6477044.png</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="I33" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H33" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I33" t="n">
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K33" t="n">
         <v>12.153</v>
       </c>
-      <c r="J33" t="n">
+      <c r="L33" t="n">
         <v>12.104</v>
       </c>
-      <c r="K33" t="n">
+      <c r="M33" t="n">
         <v>0.04900000000000126</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0.4</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
-      <c r="B34" t="inlineStr">
+      <c r="B34" t="n">
+        <v>32</v>
+      </c>
+      <c r="C34" t="n">
+        <v>32</v>
+      </c>
+      <c r="D34" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C34" t="inlineStr">
+      <c r="E34" t="inlineStr">
         <is>
           <t>1731078673.3501134</t>
         </is>
       </c>
-      <c r="D34" t="inlineStr">
+      <c r="F34" t="inlineStr">
         <is>
           <t>1731078673.5652661</t>
         </is>
       </c>
-      <c r="E34" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078673.3501134.png</t>
         </is>
       </c>
-      <c r="F34" t="inlineStr">
+      <c r="H34" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078673.5652661.png</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="I34" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H34" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I34" t="n">
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K34" t="n">
         <v>127.36</v>
       </c>
-      <c r="J34" t="n">
+      <c r="L34" t="n">
         <v>127.1</v>
       </c>
-      <c r="K34" t="n">
+      <c r="M34" t="n">
         <v>0.2600000000000051</v>
+      </c>
+      <c r="N34" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
-      <c r="B35" t="inlineStr">
+      <c r="B35" t="n">
+        <v>33</v>
+      </c>
+      <c r="C35" t="n">
+        <v>33</v>
+      </c>
+      <c r="D35" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C35" t="inlineStr">
+      <c r="E35" t="inlineStr">
         <is>
           <t>1731078673.690093</t>
         </is>
       </c>
-      <c r="D35" t="inlineStr">
+      <c r="F35" t="inlineStr">
         <is>
           <t>1731078673.7349443</t>
         </is>
       </c>
-      <c r="E35" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078673.690093.png</t>
         </is>
       </c>
-      <c r="F35" t="inlineStr">
+      <c r="H35" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078673.7349443.png</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="I35" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I35" t="n">
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K35" t="n">
         <v>127.1</v>
       </c>
-      <c r="J35" t="n">
+      <c r="L35" t="n">
         <v>127</v>
       </c>
-      <c r="K35" t="n">
+      <c r="M35" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N35" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="B36" t="inlineStr">
+      <c r="B36" t="n">
+        <v>34</v>
+      </c>
+      <c r="C36" t="n">
+        <v>34</v>
+      </c>
+      <c r="D36" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C36" t="inlineStr">
+      <c r="E36" t="inlineStr">
         <is>
           <t>1731078674.6149158</t>
         </is>
       </c>
-      <c r="D36" t="inlineStr">
+      <c r="F36" t="inlineStr">
         <is>
           <t>1731078674.7001863</t>
         </is>
       </c>
-      <c r="E36" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078674.6149158.png</t>
         </is>
       </c>
-      <c r="F36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078674.7001863.png</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I36" t="n">
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K36" t="n">
         <v>126.88</v>
       </c>
-      <c r="J36" t="n">
+      <c r="L36" t="n">
         <v>127</v>
       </c>
-      <c r="K36" t="n">
+      <c r="M36" t="n">
         <v>-0.1200000000000045</v>
+      </c>
+      <c r="N36" t="n">
+        <v>-0.09</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
-      <c r="B37" t="inlineStr">
+      <c r="B37" t="n">
+        <v>35</v>
+      </c>
+      <c r="C37" t="n">
+        <v>35</v>
+      </c>
+      <c r="D37" t="inlineStr">
         <is>
           <t>GMKN</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="E37" t="inlineStr">
         <is>
           <t>1731078674.8152304</t>
         </is>
       </c>
-      <c r="D37" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>1731078675.715279</t>
         </is>
       </c>
-      <c r="E37" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078674.8152304.png</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="H37" t="inlineStr">
         <is>
           <t>./test_images/GMKN1731078675.715279.png</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="I37" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H37" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I37" t="n">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
         <v>127</v>
       </c>
-      <c r="J37" t="n">
+      <c r="L37" t="n">
         <v>127.28</v>
       </c>
-      <c r="K37" t="n">
+      <c r="M37" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N37" t="n">
+        <v>-0.22</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
-      <c r="B38" t="inlineStr">
+      <c r="B38" t="n">
+        <v>36</v>
+      </c>
+      <c r="C38" t="n">
+        <v>36</v>
+      </c>
+      <c r="D38" t="inlineStr">
         <is>
           <t>NLMK</t>
         </is>
       </c>
-      <c r="C38" t="inlineStr">
+      <c r="E38" t="inlineStr">
         <is>
           <t>1731078683.099822</t>
         </is>
       </c>
-      <c r="D38" t="inlineStr">
+      <c r="F38" t="inlineStr">
         <is>
           <t>1731078684.1301115</t>
         </is>
       </c>
-      <c r="E38" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731078683.099822.png</t>
         </is>
       </c>
-      <c r="F38" t="inlineStr">
+      <c r="H38" t="inlineStr">
         <is>
           <t>./test_images/NLMK1731078684.1301115.png</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="I38" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H38" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I38" t="n">
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K38" t="n">
         <v>164.94</v>
       </c>
-      <c r="J38" t="n">
+      <c r="L38" t="n">
         <v>165.22</v>
       </c>
-      <c r="K38" t="n">
+      <c r="M38" t="n">
         <v>-0.2800000000000011</v>
+      </c>
+      <c r="N38" t="n">
+        <v>-0.17</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
-      <c r="B39" t="inlineStr">
+      <c r="B39" t="n">
+        <v>37</v>
+      </c>
+      <c r="C39" t="n">
+        <v>37</v>
+      </c>
+      <c r="D39" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C39" t="inlineStr">
+      <c r="E39" t="inlineStr">
         <is>
           <t>1731078689.3325107</t>
         </is>
       </c>
-      <c r="D39" t="inlineStr">
+      <c r="F39" t="inlineStr">
         <is>
           <t>1731078689.64981</t>
         </is>
       </c>
-      <c r="E39" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078689.3325107.png</t>
         </is>
       </c>
-      <c r="F39" t="inlineStr">
+      <c r="H39" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078689.64981.png</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="I39" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H39" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I39" t="n">
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K39" t="n">
         <v>50.41</v>
       </c>
-      <c r="J39" t="n">
+      <c r="L39" t="n">
         <v>50.41</v>
       </c>
-      <c r="K39" t="n">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2290,702 +2645,837 @@
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
-      <c r="B40" t="inlineStr">
+      <c r="B40" t="n">
+        <v>38</v>
+      </c>
+      <c r="C40" t="n">
+        <v>38</v>
+      </c>
+      <c r="D40" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C40" t="inlineStr">
+      <c r="E40" t="inlineStr">
         <is>
           <t>1731078691.9657812</t>
         </is>
       </c>
-      <c r="D40" t="inlineStr">
+      <c r="F40" t="inlineStr">
         <is>
           <t>1731078695.7950306</t>
         </is>
       </c>
-      <c r="E40" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078691.9657812.png</t>
         </is>
       </c>
-      <c r="F40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078695.7950306.png</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I40" t="n">
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K40" t="n">
         <v>50.58</v>
       </c>
-      <c r="J40" t="n">
+      <c r="L40" t="n">
         <v>50.315</v>
       </c>
-      <c r="K40" t="n">
+      <c r="M40" t="n">
         <v>-0.2650000000000006</v>
+      </c>
+      <c r="N40" t="n">
+        <v>-0.52</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
         <v>39</v>
       </c>
-      <c r="B41" t="inlineStr">
+      <c r="B41" t="n">
+        <v>39</v>
+      </c>
+      <c r="C41" t="n">
+        <v>39</v>
+      </c>
+      <c r="D41" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C41" t="inlineStr">
+      <c r="E41" t="inlineStr">
         <is>
           <t>1731078695.8101974</t>
         </is>
       </c>
-      <c r="D41" t="inlineStr">
+      <c r="F41" t="inlineStr">
         <is>
           <t>1731078696.2150562</t>
         </is>
       </c>
-      <c r="E41" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078695.8101974.png</t>
         </is>
       </c>
-      <c r="F41" t="inlineStr">
+      <c r="H41" t="inlineStr">
         <is>
           <t>./test_images/MAGN1731078696.2150562.png</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="I41" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H41" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I41" t="n">
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K41" t="n">
         <v>50.315</v>
       </c>
-      <c r="J41" t="n">
+      <c r="L41" t="n">
         <v>50.18</v>
       </c>
-      <c r="K41" t="n">
+      <c r="M41" t="n">
         <v>0.134999999999998</v>
+      </c>
+      <c r="N41" t="n">
+        <v>0.27</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
         <v>40</v>
       </c>
-      <c r="B42" t="inlineStr">
+      <c r="B42" t="n">
+        <v>40</v>
+      </c>
+      <c r="C42" t="n">
+        <v>40</v>
+      </c>
+      <c r="D42" t="inlineStr">
         <is>
           <t>MAGN</t>
         </is>
       </c>
-      <c r="C42" t="inlineStr">
+      <c r="E42" t="inlineStr">
         <is>
           <t>1731078696.7048929</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr"/>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>./test_images/MAGN1731078696.7048929.png</t>
         </is>
       </c>
       <c r="F42" t="inlineStr"/>
       <c r="G42" t="inlineStr">
         <is>
+          <t>./test_images/MAGN1731078696.7048929.png</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr"/>
+      <c r="I42" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H42" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I42" t="n">
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K42" t="n">
         <v>50.215</v>
       </c>
-      <c r="J42" t="n">
-        <v>50.215</v>
-      </c>
-      <c r="K42" t="n">
-        <v>0</v>
+      <c r="L42" t="n">
+        <v>50.14</v>
+      </c>
+      <c r="M42" t="n">
+        <v>0.07500000000000284</v>
+      </c>
+      <c r="N42" t="n">
+        <v>0.15</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
         <v>41</v>
       </c>
-      <c r="B43" t="inlineStr">
+      <c r="B43" t="n">
+        <v>41</v>
+      </c>
+      <c r="C43" t="n">
+        <v>41</v>
+      </c>
+      <c r="D43" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C43" t="inlineStr">
+      <c r="E43" t="inlineStr">
         <is>
           <t>1731078703.7249196</t>
         </is>
       </c>
-      <c r="D43" t="inlineStr">
+      <c r="F43" t="inlineStr">
         <is>
           <t>1731078703.9851139</t>
         </is>
       </c>
-      <c r="E43" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078703.7249196.png</t>
         </is>
       </c>
-      <c r="F43" t="inlineStr">
+      <c r="H43" t="inlineStr">
         <is>
           <t>./test_images/CHMF1731078703.9851139.png</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="I43" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H43" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I43" t="n">
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K43" t="n">
         <v>1404.8</v>
       </c>
-      <c r="J43" t="n">
+      <c r="L43" t="n">
         <v>1398.2</v>
       </c>
-      <c r="K43" t="n">
+      <c r="M43" t="n">
         <v>6.599999999999909</v>
+      </c>
+      <c r="N43" t="n">
+        <v>0.47</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
         <v>42</v>
       </c>
-      <c r="B44" t="inlineStr">
+      <c r="B44" t="n">
+        <v>42</v>
+      </c>
+      <c r="C44" t="n">
+        <v>42</v>
+      </c>
+      <c r="D44" t="inlineStr">
         <is>
           <t>CHMF</t>
         </is>
       </c>
-      <c r="C44" t="inlineStr">
+      <c r="E44" t="inlineStr">
         <is>
           <t>1731078704.6651278</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr"/>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>./test_images/CHMF1731078704.6651278.png</t>
         </is>
       </c>
       <c r="F44" t="inlineStr"/>
       <c r="G44" t="inlineStr">
         <is>
+          <t>./test_images/CHMF1731078704.6651278.png</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr"/>
+      <c r="I44" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H44" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I44" t="n">
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K44" t="n">
         <v>1400.8</v>
       </c>
-      <c r="J44" t="n">
-        <v>1400.8</v>
-      </c>
-      <c r="K44" t="n">
-        <v>0</v>
+      <c r="L44" t="n">
+        <v>1401</v>
+      </c>
+      <c r="M44" t="n">
+        <v>-0.2000000000000455</v>
+      </c>
+      <c r="N44" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
         <v>43</v>
       </c>
-      <c r="B45" t="inlineStr">
+      <c r="B45" t="n">
+        <v>43</v>
+      </c>
+      <c r="C45" t="n">
+        <v>43</v>
+      </c>
+      <c r="D45" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C45" t="inlineStr">
+      <c r="E45" t="inlineStr">
         <is>
           <t>1731078705.4106722</t>
         </is>
       </c>
-      <c r="D45" t="inlineStr">
+      <c r="F45" t="inlineStr">
         <is>
           <t>1731078705.9349601</t>
         </is>
       </c>
-      <c r="E45" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078705.4106722.png</t>
         </is>
       </c>
-      <c r="F45" t="inlineStr">
+      <c r="H45" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078705.9349601.png</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
+      <c r="I45" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H45" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I45" t="n">
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K45" t="n">
         <v>59.76</v>
       </c>
-      <c r="J45" t="n">
+      <c r="L45" t="n">
         <v>59.81</v>
       </c>
-      <c r="K45" t="n">
+      <c r="M45" t="n">
         <v>0.05000000000000426</v>
+      </c>
+      <c r="N45" t="n">
+        <v>0.08</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
         <v>44</v>
       </c>
-      <c r="B46" t="inlineStr">
+      <c r="B46" t="n">
+        <v>44</v>
+      </c>
+      <c r="C46" t="n">
+        <v>44</v>
+      </c>
+      <c r="D46" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C46" t="inlineStr">
+      <c r="E46" t="inlineStr">
         <is>
           <t>1731078710.094865</t>
         </is>
       </c>
-      <c r="D46" t="inlineStr">
+      <c r="F46" t="inlineStr">
         <is>
           <t>1731078710.2752285</t>
         </is>
       </c>
-      <c r="E46" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078710.094865.png</t>
         </is>
       </c>
-      <c r="F46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078710.2752285.png</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I46" t="n">
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K46" t="n">
         <v>59.7</v>
       </c>
-      <c r="J46" t="n">
+      <c r="L46" t="n">
         <v>59.72</v>
       </c>
-      <c r="K46" t="n">
+      <c r="M46" t="n">
         <v>-0.01999999999999602</v>
+      </c>
+      <c r="N46" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
         <v>45</v>
       </c>
-      <c r="B47" t="inlineStr">
+      <c r="B47" t="n">
+        <v>45</v>
+      </c>
+      <c r="C47" t="n">
+        <v>45</v>
+      </c>
+      <c r="D47" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C47" t="inlineStr">
+      <c r="E47" t="inlineStr">
         <is>
           <t>1731078712.4501805</t>
         </is>
       </c>
-      <c r="D47" t="inlineStr">
+      <c r="F47" t="inlineStr">
         <is>
           <t>1731078712.5152535</t>
         </is>
       </c>
-      <c r="E47" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078712.4501805.png</t>
         </is>
       </c>
-      <c r="F47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078712.5152535.png</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I47" t="n">
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K47" t="n">
         <v>59.62</v>
       </c>
-      <c r="J47" t="n">
+      <c r="L47" t="n">
         <v>59.64</v>
       </c>
-      <c r="K47" t="n">
+      <c r="M47" t="n">
         <v>-0.02000000000000313</v>
+      </c>
+      <c r="N47" t="n">
+        <v>-0.03</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" s="1" t="n">
         <v>46</v>
       </c>
-      <c r="B48" t="inlineStr">
+      <c r="B48" t="n">
+        <v>46</v>
+      </c>
+      <c r="C48" t="n">
+        <v>46</v>
+      </c>
+      <c r="D48" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C48" t="inlineStr">
+      <c r="E48" t="inlineStr">
         <is>
           <t>1731078712.615273</t>
         </is>
       </c>
-      <c r="D48" t="inlineStr">
+      <c r="F48" t="inlineStr">
         <is>
           <t>1731078713.405254</t>
         </is>
       </c>
-      <c r="E48" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078712.615273.png</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="H48" t="inlineStr">
         <is>
           <t>./test_images/ALRS1731078713.405254.png</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
+      <c r="I48" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H48" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I48" t="n">
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K48" t="n">
         <v>59.64</v>
       </c>
-      <c r="J48" t="n">
+      <c r="L48" t="n">
         <v>59.5</v>
       </c>
-      <c r="K48" t="n">
+      <c r="M48" t="n">
         <v>0.1400000000000006</v>
+      </c>
+      <c r="N48" t="n">
+        <v>0.23</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
         <v>47</v>
       </c>
-      <c r="B49" t="inlineStr">
+      <c r="B49" t="n">
+        <v>47</v>
+      </c>
+      <c r="C49" t="n">
+        <v>47</v>
+      </c>
+      <c r="D49" t="inlineStr">
         <is>
           <t>ALRS</t>
         </is>
       </c>
-      <c r="C49" t="inlineStr">
+      <c r="E49" t="inlineStr">
         <is>
           <t>1731078713.4652867</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr"/>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>./test_images/ALRS1731078713.4652867.png</t>
         </is>
       </c>
       <c r="F49" t="inlineStr"/>
       <c r="G49" t="inlineStr">
         <is>
+          <t>./test_images/ALRS1731078713.4652867.png</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr"/>
+      <c r="I49" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I49" t="n">
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K49" t="n">
         <v>59.55</v>
       </c>
-      <c r="J49" t="n">
-        <v>59.55</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
+      <c r="L49" t="n">
+        <v>59.59</v>
+      </c>
+      <c r="M49" t="n">
+        <v>-0.04000000000000625</v>
+      </c>
+      <c r="N49" t="n">
+        <v>-0.06999999999999999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
         <v>48</v>
       </c>
-      <c r="B50" t="inlineStr">
+      <c r="B50" t="n">
+        <v>48</v>
+      </c>
+      <c r="C50" t="n">
+        <v>48</v>
+      </c>
+      <c r="D50" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C50" t="inlineStr">
+      <c r="E50" t="inlineStr">
         <is>
           <t>1731078714.6249502</t>
         </is>
       </c>
-      <c r="D50" t="inlineStr">
+      <c r="F50" t="inlineStr">
         <is>
           <t>1731078715.0798385</t>
         </is>
       </c>
-      <c r="E50" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078714.6249502.png</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="H50" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078715.0798385.png</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
+      <c r="I50" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H50" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I50" t="n">
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K50" t="n">
         <v>101.45</v>
       </c>
-      <c r="J50" t="n">
+      <c r="L50" t="n">
         <v>101.56</v>
       </c>
-      <c r="K50" t="n">
+      <c r="M50" t="n">
         <v>0.1099999999999994</v>
+      </c>
+      <c r="N50" t="n">
+        <v>0.11</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
         <v>49</v>
       </c>
-      <c r="B51" t="inlineStr">
+      <c r="B51" t="n">
+        <v>49</v>
+      </c>
+      <c r="C51" t="n">
+        <v>49</v>
+      </c>
+      <c r="D51" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C51" t="inlineStr">
+      <c r="E51" t="inlineStr">
         <is>
           <t>1731078719.4954584</t>
         </is>
       </c>
-      <c r="D51" t="inlineStr">
+      <c r="F51" t="inlineStr">
         <is>
           <t>1731078721.425241</t>
         </is>
       </c>
-      <c r="E51" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078719.4954584.png</t>
         </is>
       </c>
-      <c r="F51" t="inlineStr">
+      <c r="H51" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078721.425241.png</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
+      <c r="I51" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H51" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I51" t="n">
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K51" t="n">
         <v>101.8</v>
       </c>
-      <c r="J51" t="n">
+      <c r="L51" t="n">
         <v>101.51</v>
       </c>
-      <c r="K51" t="n">
+      <c r="M51" t="n">
         <v>-0.289999999999992</v>
+      </c>
+      <c r="N51" t="n">
+        <v>-0.28</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
         <v>50</v>
       </c>
-      <c r="B52" t="inlineStr">
+      <c r="B52" t="n">
+        <v>50</v>
+      </c>
+      <c r="C52" t="n">
+        <v>50</v>
+      </c>
+      <c r="D52" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C52" t="inlineStr">
+      <c r="E52" t="inlineStr">
         <is>
           <t>1731078722.4649014</t>
         </is>
       </c>
-      <c r="D52" t="inlineStr">
+      <c r="F52" t="inlineStr">
         <is>
           <t>1731078722.520238</t>
         </is>
       </c>
-      <c r="E52" t="inlineStr">
+      <c r="G52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078722.4649014.png</t>
         </is>
       </c>
-      <c r="F52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>./test_images/VTBR1731078722.520238.png</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I52" t="n">
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K52" t="n">
         <v>101.19</v>
       </c>
-      <c r="J52" t="n">
+      <c r="L52" t="n">
         <v>101.09</v>
       </c>
-      <c r="K52" t="n">
+      <c r="M52" t="n">
         <v>0.09999999999999432</v>
+      </c>
+      <c r="N52" t="n">
+        <v>0.1</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
         <v>51</v>
       </c>
-      <c r="B53" t="inlineStr">
+      <c r="B53" t="n">
+        <v>51</v>
+      </c>
+      <c r="C53" t="n">
+        <v>51</v>
+      </c>
+      <c r="D53" t="inlineStr">
         <is>
           <t>VTBR</t>
         </is>
       </c>
-      <c r="C53" t="inlineStr">
+      <c r="E53" t="inlineStr">
         <is>
           <t>1731078722.6600823</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr"/>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>./test_images/VTBR1731078722.6600823.png</t>
         </is>
       </c>
       <c r="F53" t="inlineStr"/>
       <c r="G53" t="inlineStr">
         <is>
+          <t>./test_images/VTBR1731078722.6600823.png</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr"/>
+      <c r="I53" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H53" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I53" t="n">
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K53" t="n">
         <v>101.09</v>
       </c>
-      <c r="J53" t="n">
-        <v>101.09</v>
-      </c>
-      <c r="K53" t="n">
-        <v>0</v>
+      <c r="L53" t="n">
+        <v>101.06</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0.03000000000000114</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0.03</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
         <v>52</v>
       </c>
-      <c r="B54" t="inlineStr">
+      <c r="B54" t="n">
+        <v>52</v>
+      </c>
+      <c r="C54" t="n">
+        <v>52</v>
+      </c>
+      <c r="D54" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="E54" t="inlineStr">
         <is>
           <t>1731078729.4901624</t>
         </is>
       </c>
-      <c r="D54" t="inlineStr">
+      <c r="F54" t="inlineStr">
         <is>
           <t>1731078729.6948647</t>
         </is>
       </c>
-      <c r="E54" t="inlineStr">
+      <c r="G54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731078729.4901624.png</t>
         </is>
       </c>
-      <c r="F54" t="inlineStr">
+      <c r="H54" t="inlineStr">
         <is>
           <t>./test_images/SELG1731078729.6948647.png</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
+      <c r="I54" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H54" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I54" t="n">
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K54" t="n">
         <v>56.87</v>
       </c>
-      <c r="J54" t="n">
+      <c r="L54" t="n">
         <v>56.87</v>
       </c>
-      <c r="K54" t="n">
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
         <v>0</v>
       </c>
     </row>
@@ -2993,597 +3483,714 @@
       <c r="A55" s="1" t="n">
         <v>53</v>
       </c>
-      <c r="B55" t="inlineStr">
+      <c r="B55" t="n">
+        <v>53</v>
+      </c>
+      <c r="C55" t="n">
+        <v>53</v>
+      </c>
+      <c r="D55" t="inlineStr">
         <is>
           <t>SELG</t>
         </is>
       </c>
-      <c r="C55" t="inlineStr">
+      <c r="E55" t="inlineStr">
         <is>
           <t>1731078729.745063</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr"/>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>./test_images/SELG1731078729.745063.png</t>
         </is>
       </c>
       <c r="F55" t="inlineStr"/>
       <c r="G55" t="inlineStr">
         <is>
+          <t>./test_images/SELG1731078729.745063.png</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr"/>
+      <c r="I55" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H55" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I55" t="n">
+      <c r="J55" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K55" t="n">
         <v>56.88</v>
       </c>
-      <c r="J55" t="n">
-        <v>56.88</v>
-      </c>
-      <c r="K55" t="n">
-        <v>0</v>
+      <c r="L55" t="n">
+        <v>56.71</v>
+      </c>
+      <c r="M55" t="n">
+        <v>0.1700000000000017</v>
+      </c>
+      <c r="N55" t="n">
+        <v>0.3</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
         <v>54</v>
       </c>
-      <c r="B56" t="inlineStr">
+      <c r="B56" t="n">
+        <v>54</v>
+      </c>
+      <c r="C56" t="n">
+        <v>54</v>
+      </c>
+      <c r="D56" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C56" t="inlineStr">
+      <c r="E56" t="inlineStr">
         <is>
           <t>1731078732.5452678</t>
         </is>
       </c>
-      <c r="D56" t="inlineStr">
+      <c r="F56" t="inlineStr">
         <is>
           <t>1731078733.354936</t>
         </is>
       </c>
-      <c r="E56" t="inlineStr">
+      <c r="G56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078732.5452678.png</t>
         </is>
       </c>
-      <c r="F56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078733.354936.png</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I56" t="n">
+      <c r="J56" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K56" t="n">
         <v>158.84</v>
       </c>
-      <c r="J56" t="n">
+      <c r="L56" t="n">
         <v>158</v>
       </c>
-      <c r="K56" t="n">
+      <c r="M56" t="n">
         <v>0.8400000000000034</v>
+      </c>
+      <c r="N56" t="n">
+        <v>0.53</v>
       </c>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
         <v>55</v>
       </c>
-      <c r="B57" t="inlineStr">
+      <c r="B57" t="n">
+        <v>55</v>
+      </c>
+      <c r="C57" t="n">
+        <v>55</v>
+      </c>
+      <c r="D57" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C57" t="inlineStr">
+      <c r="E57" t="inlineStr">
         <is>
           <t>1731078734.8851352</t>
         </is>
       </c>
-      <c r="D57" t="inlineStr">
+      <c r="F57" t="inlineStr">
         <is>
           <t>1731078735.3050132</t>
         </is>
       </c>
-      <c r="E57" t="inlineStr">
+      <c r="G57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078734.8851352.png</t>
         </is>
       </c>
-      <c r="F57" t="inlineStr">
+      <c r="H57" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078735.3050132.png</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
+      <c r="I57" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H57" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I57" t="n">
+      <c r="J57" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K57" t="n">
         <v>158.32</v>
       </c>
-      <c r="J57" t="n">
+      <c r="L57" t="n">
         <v>157.6</v>
       </c>
-      <c r="K57" t="n">
+      <c r="M57" t="n">
         <v>0.7199999999999989</v>
+      </c>
+      <c r="N57" t="n">
+        <v>0.45</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
         <v>56</v>
       </c>
-      <c r="B58" t="inlineStr">
+      <c r="B58" t="n">
+        <v>56</v>
+      </c>
+      <c r="C58" t="n">
+        <v>56</v>
+      </c>
+      <c r="D58" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C58" t="inlineStr">
+      <c r="E58" t="inlineStr">
         <is>
           <t>1731078735.8148935</t>
         </is>
       </c>
-      <c r="D58" t="inlineStr">
+      <c r="F58" t="inlineStr">
         <is>
           <t>1731078737.1648157</t>
         </is>
       </c>
-      <c r="E58" t="inlineStr">
+      <c r="G58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078735.8148935.png</t>
         </is>
       </c>
-      <c r="F58" t="inlineStr">
+      <c r="H58" t="inlineStr">
         <is>
           <t>./test_images/SOFL1731078737.1648157.png</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
+      <c r="I58" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H58" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I58" t="n">
+      <c r="J58" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K58" t="n">
         <v>157.7</v>
       </c>
-      <c r="J58" t="n">
+      <c r="L58" t="n">
         <v>156.92</v>
       </c>
-      <c r="K58" t="n">
+      <c r="M58" t="n">
         <v>0.7800000000000011</v>
+      </c>
+      <c r="N58" t="n">
+        <v>0.49</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
         <v>57</v>
       </c>
-      <c r="B59" t="inlineStr">
+      <c r="B59" t="n">
+        <v>57</v>
+      </c>
+      <c r="C59" t="n">
+        <v>57</v>
+      </c>
+      <c r="D59" t="inlineStr">
         <is>
           <t>SOFL</t>
         </is>
       </c>
-      <c r="C59" t="inlineStr">
+      <c r="E59" t="inlineStr">
         <is>
           <t>1731078738.0350971</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr"/>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>./test_images/SOFL1731078738.0350971.png</t>
         </is>
       </c>
       <c r="F59" t="inlineStr"/>
       <c r="G59" t="inlineStr">
         <is>
+          <t>./test_images/SOFL1731078738.0350971.png</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr"/>
+      <c r="I59" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H59" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I59" t="n">
+      <c r="J59" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K59" t="n">
         <v>156.88</v>
       </c>
-      <c r="J59" t="n">
-        <v>156.88</v>
-      </c>
-      <c r="K59" t="n">
-        <v>0</v>
+      <c r="L59" t="n">
+        <v>156.98</v>
+      </c>
+      <c r="M59" t="n">
+        <v>-0.09999999999999432</v>
+      </c>
+      <c r="N59" t="n">
+        <v>-0.06</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" s="1" t="n">
         <v>58</v>
       </c>
-      <c r="B60" t="inlineStr">
+      <c r="B60" t="n">
+        <v>58</v>
+      </c>
+      <c r="C60" t="n">
+        <v>58</v>
+      </c>
+      <c r="D60" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C60" t="inlineStr">
+      <c r="E60" t="inlineStr">
         <is>
           <t>1731078740.4748747</t>
         </is>
       </c>
-      <c r="D60" t="inlineStr">
+      <c r="F60" t="inlineStr">
         <is>
           <t>1731078743.4953089</t>
         </is>
       </c>
-      <c r="E60" t="inlineStr">
+      <c r="G60" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078740.4748747.png</t>
         </is>
       </c>
-      <c r="F60" t="inlineStr">
+      <c r="H60" t="inlineStr">
         <is>
           <t>./test_images/MRKP1731078743.4953089.png</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
+      <c r="I60" t="inlineStr">
         <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H60" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I60" t="n">
+      <c r="J60" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K60" t="n">
         <v>0.3124</v>
       </c>
-      <c r="J60" t="n">
+      <c r="L60" t="n">
         <v>0.3106</v>
       </c>
-      <c r="K60" t="n">
+      <c r="M60" t="n">
         <v>0.001800000000000024</v>
+      </c>
+      <c r="N60" t="n">
+        <v>0.58</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
         <v>59</v>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B61" t="n">
+        <v>59</v>
+      </c>
+      <c r="C61" t="n">
+        <v>59</v>
+      </c>
+      <c r="D61" t="inlineStr">
         <is>
           <t>MRKP</t>
         </is>
       </c>
-      <c r="C61" t="inlineStr">
+      <c r="E61" t="inlineStr">
         <is>
           <t>1731078744.4251993</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr"/>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>./test_images/MRKP1731078744.4251993.png</t>
         </is>
       </c>
       <c r="F61" t="inlineStr"/>
       <c r="G61" t="inlineStr">
         <is>
+          <t>./test_images/MRKP1731078744.4251993.png</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr"/>
+      <c r="I61" t="inlineStr">
+        <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I61" t="n">
+      <c r="J61" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K61" t="n">
         <v>0.3107</v>
       </c>
-      <c r="J61" t="n">
-        <v>0.3107</v>
-      </c>
-      <c r="K61" t="n">
-        <v>0</v>
+      <c r="L61" t="n">
+        <v>0.3093</v>
+      </c>
+      <c r="M61" t="n">
+        <v>-0.001399999999999957</v>
+      </c>
+      <c r="N61" t="n">
+        <v>-0.45</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
         <v>60</v>
       </c>
-      <c r="B62" t="inlineStr">
+      <c r="B62" t="n">
+        <v>60</v>
+      </c>
+      <c r="C62" t="n">
+        <v>60</v>
+      </c>
+      <c r="D62" t="inlineStr">
         <is>
           <t>AFKS</t>
         </is>
       </c>
-      <c r="C62" t="inlineStr">
+      <c r="E62" t="inlineStr">
         <is>
           <t>1731078754.1850066</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr"/>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>./test_images/AFKS1731078754.1850066.png</t>
         </is>
       </c>
       <c r="F62" t="inlineStr"/>
       <c r="G62" t="inlineStr">
         <is>
+          <t>./test_images/AFKS1731078754.1850066.png</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr"/>
+      <c r="I62" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I62" t="n">
+      <c r="J62" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K62" t="n">
         <v>20.768</v>
       </c>
-      <c r="J62" t="n">
-        <v>20.768</v>
-      </c>
-      <c r="K62" t="n">
-        <v>0</v>
+      <c r="L62" t="n">
+        <v>20.717</v>
+      </c>
+      <c r="M62" t="n">
+        <v>0.05100000000000193</v>
+      </c>
+      <c r="N62" t="n">
+        <v>0.25</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
         <v>61</v>
       </c>
-      <c r="B63" t="inlineStr">
+      <c r="B63" t="n">
+        <v>61</v>
+      </c>
+      <c r="C63" t="n">
+        <v>61</v>
+      </c>
+      <c r="D63" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C63" t="inlineStr">
+      <c r="E63" t="inlineStr">
         <is>
           <t>1731078754.9751012</t>
         </is>
       </c>
-      <c r="D63" t="inlineStr">
+      <c r="F63" t="inlineStr">
         <is>
           <t>1731078755.3049188</t>
         </is>
       </c>
-      <c r="E63" t="inlineStr">
+      <c r="G63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078754.9751012.png</t>
         </is>
       </c>
-      <c r="F63" t="inlineStr">
+      <c r="H63" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078755.3049188.png</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
+      <c r="I63" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H63" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I63" t="n">
+      <c r="J63" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K63" t="n">
         <v>693.8</v>
       </c>
-      <c r="J63" t="n">
+      <c r="L63" t="n">
         <v>694.95</v>
       </c>
-      <c r="K63" t="n">
+      <c r="M63" t="n">
         <v>1.150000000000091</v>
+      </c>
+      <c r="N63" t="n">
+        <v>0.17</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" s="1" t="n">
         <v>62</v>
       </c>
-      <c r="B64" t="inlineStr">
+      <c r="B64" t="n">
+        <v>62</v>
+      </c>
+      <c r="C64" t="n">
+        <v>62</v>
+      </c>
+      <c r="D64" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C64" t="inlineStr">
+      <c r="E64" t="inlineStr">
         <is>
           <t>1731078756.025045</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
+      <c r="F64" t="inlineStr">
         <is>
           <t>1731078756.5548067</t>
         </is>
       </c>
-      <c r="E64" t="inlineStr">
+      <c r="G64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078756.025045.png</t>
         </is>
       </c>
-      <c r="F64" t="inlineStr">
+      <c r="H64" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078756.5548067.png</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
+      <c r="I64" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H64" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I64" t="n">
+      <c r="J64" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K64" t="n">
         <v>692.2</v>
       </c>
-      <c r="J64" t="n">
+      <c r="L64" t="n">
         <v>692.1</v>
       </c>
-      <c r="K64" t="n">
+      <c r="M64" t="n">
         <v>-0.1000000000000227</v>
+      </c>
+      <c r="N64" t="n">
+        <v>-0.01</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
         <v>63</v>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B65" t="n">
+        <v>63</v>
+      </c>
+      <c r="C65" t="n">
+        <v>63</v>
+      </c>
+      <c r="D65" t="inlineStr">
         <is>
           <t>SIBN</t>
         </is>
       </c>
-      <c r="C65" t="inlineStr">
+      <c r="E65" t="inlineStr">
         <is>
           <t>1731078757.4949267</t>
         </is>
       </c>
-      <c r="D65" t="inlineStr">
+      <c r="F65" t="inlineStr">
         <is>
           <t>1731078757.7452357</t>
         </is>
       </c>
-      <c r="E65" t="inlineStr">
+      <c r="G65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078757.4949267.png</t>
         </is>
       </c>
-      <c r="F65" t="inlineStr">
+      <c r="H65" t="inlineStr">
         <is>
           <t>./test_images/SIBN1731078757.7452357.png</t>
         </is>
       </c>
-      <c r="G65" t="inlineStr">
+      <c r="I65" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H65" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I65" t="n">
+      <c r="J65" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K65" t="n">
         <v>693.7</v>
       </c>
-      <c r="J65" t="n">
+      <c r="L65" t="n">
         <v>692.85</v>
       </c>
-      <c r="K65" t="n">
+      <c r="M65" t="n">
         <v>-0.8500000000000227</v>
+      </c>
+      <c r="N65" t="n">
+        <v>-0.12</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="1" t="n">
         <v>64</v>
       </c>
-      <c r="B66" t="inlineStr">
+      <c r="B66" t="n">
+        <v>64</v>
+      </c>
+      <c r="C66" t="n">
+        <v>64</v>
+      </c>
+      <c r="D66" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C66" t="inlineStr">
+      <c r="E66" t="inlineStr">
         <is>
           <t>1731078763.1201303</t>
         </is>
       </c>
-      <c r="D66" t="inlineStr">
+      <c r="F66" t="inlineStr">
         <is>
           <t>1731078764.5350106</t>
         </is>
       </c>
-      <c r="E66" t="inlineStr">
+      <c r="G66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731078763.1201303.png</t>
         </is>
       </c>
-      <c r="F66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>./test_images/MTLR1731078764.5350106.png</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>long</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I66" t="n">
+      <c r="J66" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K66" t="n">
         <v>158.57</v>
       </c>
-      <c r="J66" t="n">
+      <c r="L66" t="n">
         <v>158.89</v>
       </c>
-      <c r="K66" t="n">
+      <c r="M66" t="n">
         <v>0.3199999999999932</v>
+      </c>
+      <c r="N66" t="n">
+        <v>0.2</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
         <v>65</v>
       </c>
-      <c r="B67" t="inlineStr">
+      <c r="B67" t="n">
+        <v>65</v>
+      </c>
+      <c r="C67" t="n">
+        <v>65</v>
+      </c>
+      <c r="D67" t="inlineStr">
         <is>
           <t>MTLR</t>
         </is>
       </c>
-      <c r="C67" t="inlineStr">
+      <c r="E67" t="inlineStr">
         <is>
           <t>1731078770.415015</t>
-        </is>
-      </c>
-      <c r="D67" t="inlineStr"/>
-      <c r="E67" t="inlineStr">
-        <is>
-          <t>./test_images/MTLR1731078770.415015.png</t>
         </is>
       </c>
       <c r="F67" t="inlineStr"/>
       <c r="G67" t="inlineStr">
         <is>
+          <t>./test_images/MTLR1731078770.415015.png</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr"/>
+      <c r="I67" t="inlineStr">
+        <is>
           <t>short</t>
         </is>
       </c>
-      <c r="H67" t="inlineStr">
-        <is>
-          <t>PT2</t>
-        </is>
-      </c>
-      <c r="I67" t="n">
+      <c r="J67" t="inlineStr">
+        <is>
+          <t>PT2</t>
+        </is>
+      </c>
+      <c r="K67" t="n">
         <v>156.71</v>
       </c>
-      <c r="J67" t="n">
-        <v>156.71</v>
-      </c>
-      <c r="K67" t="n">
-        <v>0</v>
+      <c r="L67" t="n">
+        <v>156.26</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0.4500000000000171</v>
+      </c>
+      <c r="N67" t="n">
+        <v>0.29</v>
       </c>
     </row>
   </sheetData>
@@ -3597,7 +4204,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3621,6 +4228,21 @@
           <t>count</t>
         </is>
       </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>part</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>total_percent</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>average_percent</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
@@ -3629,11 +4251,20 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.3499999999999943</v>
+        <v>0.589999999999975</v>
       </c>
       <c r="C2" t="n">
         <v>6</v>
       </c>
+      <c r="D2" t="n">
+        <v>0.09833333333332916</v>
+      </c>
+      <c r="E2" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F2" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -3642,11 +4273,20 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>-0.09000000000003183</v>
+        <v>0.2599999999999341</v>
       </c>
       <c r="C3" t="n">
         <v>5</v>
       </c>
+      <c r="D3" t="n">
+        <v>0.05199999999998681</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0.09000000000000005</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.02</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -3655,11 +4295,20 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1500000000000057</v>
+        <v>0.1099999999999994</v>
       </c>
       <c r="C4" t="n">
         <v>5</v>
       </c>
+      <c r="D4" t="n">
+        <v>0.02199999999999989</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F4" t="n">
+        <v>0.04</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -3668,11 +4317,20 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>-3.049999999999955</v>
+        <v>-3.249999999999943</v>
       </c>
       <c r="C5" t="n">
         <v>4</v>
       </c>
+      <c r="D5" t="n">
+        <v>-0.8124999999999858</v>
+      </c>
+      <c r="E5" t="n">
+        <v>-0.65</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.16</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -3686,6 +4344,15 @@
       <c r="C6" t="n">
         <v>4</v>
       </c>
+      <c r="D6" t="n">
+        <v>0.01100000000000056</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.36</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0.09</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -3694,11 +4361,20 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>-0.07999999999999829</v>
+        <v>-0.04999999999999716</v>
       </c>
       <c r="C7" t="n">
         <v>4</v>
       </c>
+      <c r="D7" t="n">
+        <v>-0.01249999999999929</v>
+      </c>
+      <c r="E7" t="n">
+        <v>-0.03999999999999998</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -3712,6 +4388,15 @@
       <c r="C8" t="n">
         <v>4</v>
       </c>
+      <c r="D8" t="n">
+        <v>-0.01000000000000156</v>
+      </c>
+      <c r="E8" t="n">
+        <v>-0.02999999999999997</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.01</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -3720,11 +4405,20 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>-52.5</v>
+        <v>-47.5</v>
       </c>
       <c r="C9" t="n">
         <v>4</v>
       </c>
+      <c r="D9" t="n">
+        <v>-11.875</v>
+      </c>
+      <c r="E9" t="n">
+        <v>-0.7200000000000001</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.18</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -3733,11 +4427,20 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>-0.1300000000000026</v>
+        <v>-0.05499999999999972</v>
       </c>
       <c r="C10" t="n">
         <v>4</v>
       </c>
+      <c r="D10" t="n">
+        <v>-0.01374999999999993</v>
+      </c>
+      <c r="E10" t="n">
+        <v>-0.1</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.02</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -3746,11 +4449,20 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2.340000000000003</v>
+        <v>2.240000000000009</v>
       </c>
       <c r="C11" t="n">
         <v>4</v>
       </c>
+      <c r="D11" t="n">
+        <v>0.5600000000000023</v>
+      </c>
+      <c r="E11" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.35</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -3759,11 +4471,20 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>-1.599999999999909</v>
+        <v>-3.399999999999864</v>
       </c>
       <c r="C12" t="n">
         <v>4</v>
       </c>
+      <c r="D12" t="n">
+        <v>-0.8499999999999659</v>
+      </c>
+      <c r="E12" t="n">
+        <v>-0.32</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.08</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -3772,11 +4493,20 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.7799999999999727</v>
+        <v>1.039999999999964</v>
       </c>
       <c r="C13" t="n">
         <v>3</v>
       </c>
+      <c r="D13" t="n">
+        <v>0.3466666666666545</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.37</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0.12</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -3790,6 +4520,15 @@
       <c r="C14" t="n">
         <v>3</v>
       </c>
+      <c r="D14" t="n">
+        <v>0.06666666666668182</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.03999999999999999</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.01</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -3798,11 +4537,20 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.3199999999999932</v>
+        <v>0.7700000000000102</v>
       </c>
       <c r="C15" t="n">
         <v>2</v>
       </c>
+      <c r="D15" t="n">
+        <v>0.3850000000000051</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.49</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0.24</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -3811,11 +4559,20 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.001800000000000024</v>
+        <v>0.000400000000000067</v>
       </c>
       <c r="C16" t="n">
         <v>2</v>
       </c>
+      <c r="D16" t="n">
+        <v>0.0002000000000000335</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0.06</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -3824,11 +4581,20 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>6.599999999999909</v>
+        <v>6.399999999999864</v>
       </c>
       <c r="C17" t="n">
         <v>2</v>
       </c>
+      <c r="D17" t="n">
+        <v>3.199999999999932</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.46</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0.23</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -3837,11 +4603,20 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>0</v>
+        <v>0.1700000000000017</v>
       </c>
       <c r="C18" t="n">
         <v>2</v>
       </c>
+      <c r="D18" t="n">
+        <v>0.08500000000000085</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -3850,11 +4625,20 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>0.05100000000000193</v>
       </c>
       <c r="C19" t="n">
         <v>1</v>
       </c>
+      <c r="D19" t="n">
+        <v>0.05100000000000193</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -3868,6 +4652,15 @@
       <c r="C20" t="n">
         <v>1</v>
       </c>
+      <c r="D20" t="n">
+        <v>-0.2800000000000011</v>
+      </c>
+      <c r="E20" t="n">
+        <v>-0.17</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.17</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -3876,11 +4669,20 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>0</v>
+        <v>0.06000000000000227</v>
       </c>
       <c r="C21" t="n">
         <v>1</v>
       </c>
+      <c r="D21" t="n">
+        <v>0.06000000000000227</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="F21" t="n">
+        <v>0.05</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="inlineStr">
@@ -3894,6 +4696,11 @@
       <c r="C22" t="n">
         <v>0</v>
       </c>
+      <c r="D22" t="inlineStr"/>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
